--- a/database/rawdata/aircraftproperties/Data Extraction 2.xlsx
+++ b/database/rawdata/aircraftproperties/Data Extraction 2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRohr\Desktop\Masterarbeit\Python\test_env\database_creation\rawdata\aircraftproperties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/Aircraft-Performance/database/rawdata/aircraftproperties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FD48B5-86A5-4C14-AFAA-1F0A21A4D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BBA5CD-EFEA-854A-8AC2-8CFFCF6D63DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
+    <workbookView xWindow="-102400" yWindow="-17600" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{EC9DA6B0-2C5C-4786-A3C0-5C7513901B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Figure 4" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure 5" sheetId="4" r:id="rId4"/>
-    <sheet name="Large Jets overall" sheetId="5" r:id="rId5"/>
+    <sheet name="Data (Figure 3)" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 3" sheetId="6" r:id="rId3"/>
+    <sheet name="Figure 4" sheetId="3" r:id="rId4"/>
+    <sheet name="Figure 5" sheetId="4" r:id="rId5"/>
+    <sheet name="Large Jets overall" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Figure 5'!$I$2:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Figure 5'!$I$2:$K$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="100">
   <si>
     <t>Large Aircraft (triangle)</t>
   </si>
@@ -373,13 +374,13 @@
     <t>B747-100/200/300</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>TSFC Cruise [mg/Ns]</t>
   </si>
   <si>
-    <t>TSFC Cruise</t>
+    <t>Aircraft Designation</t>
   </si>
   <si>
-    <t>YOI</t>
+    <t>Aircraft Type</t>
   </si>
 </sst>
 </file>
@@ -449,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +467,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +488,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1574,7 +1576,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1612,7 +1614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1532108992"/>
@@ -1711,7 +1713,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1749,7 +1751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1531804560"/>
@@ -1802,7 +1804,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1832,7 +1834,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1846,7 +1848,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1867,15 +1869,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Figure 3'!$A$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Turboprops</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Turboprops</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1904,7 +1898,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3'!$A$3:$A$22</c:f>
+              <c:f>'Data (Figure 3)'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1973,7 +1967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3'!$B$3:$B$22</c:f>
+              <c:f>'Data (Figure 3)'!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2043,7 +2037,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9379-445F-B6C1-6D56A7415338}"/>
+              <c16:uniqueId val="{00000000-9881-984B-B2B1-D4E5329953A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2051,15 +2045,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Figure 3'!$E$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Regional Jets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Regional Jets</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2088,7 +2074,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3'!$E$3:$E$16</c:f>
+              <c:f>'Data (Figure 3)'!$A$22:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2139,7 +2125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3'!$F$3:$F$16</c:f>
+              <c:f>'Data (Figure 3)'!$B$22:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2191,7 +2177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9379-445F-B6C1-6D56A7415338}"/>
+              <c16:uniqueId val="{00000001-9881-984B-B2B1-D4E5329953A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2199,15 +2185,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Figure 3'!$I$1:$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Large Jets</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Large Jets</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2236,7 +2214,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3'!$I$3:$I$30</c:f>
+              <c:f>'Data (Figure 3)'!$A$36:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2329,7 +2307,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3'!$J$3:$J$30</c:f>
+              <c:f>'Data (Figure 3)'!$B$36:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2423,7 +2401,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9379-445F-B6C1-6D56A7415338}"/>
+              <c16:uniqueId val="{00000002-9881-984B-B2B1-D4E5329953A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2461,6 +2439,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Aircraft Year of Introduction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2495,7 +2528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1938883680"/>
@@ -2523,6 +2556,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>TSFC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [mg/Ns]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2557,7 +2650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184901456"/>
@@ -2573,18 +2666,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.1280462070878199E-2"/>
-          <c:y val="0.70806548219934051"/>
-          <c:w val="0.24907139670328346"/>
-          <c:h val="0.16079211252439599"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2609,7 +2692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2639,21 +2722,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3269,7 +3347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="775806415"/>
@@ -3332,7 +3410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="720558207"/>
@@ -3384,7 +3462,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3414,7 +3492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3428,7 +3506,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3954,7 +4032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="599155791"/>
@@ -4017,7 +4095,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="605791903"/>
@@ -4069,7 +4147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4099,7 +4177,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6334,6 +6412,17 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E07D168C-3F92-1B45-9F0F-E44DCF0504E7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6379,30 +6468,20 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306478" cy="6067206"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B71B40-899D-4FDD-85B6-A9A0B0C55108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70E1457-1D4F-BFE5-5713-CF84823DCE36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6416,7 +6495,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6507,9 +6586,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6547,7 +6626,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6653,7 +6732,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6795,7 +6874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6805,23 +6884,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BCD886-4D4F-4FF8-9F67-E6749D5D0659}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.86328125" customWidth="1"/>
-    <col min="4" max="5" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6839,7 +6917,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6868,7 +6946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1959</v>
       </c>
@@ -6897,7 +6975,7 @@
         <v>2.8378000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1959</v>
       </c>
@@ -6923,7 +7001,7 @@
         <v>2.7804000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1960</v>
       </c>
@@ -6949,7 +7027,7 @@
         <v>2.6149</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1961</v>
       </c>
@@ -6978,7 +7056,7 @@
         <v>2.3919000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1962</v>
       </c>
@@ -7005,7 +7083,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1965</v>
       </c>
@@ -7034,7 +7112,7 @@
         <v>2.2770000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1966</v>
       </c>
@@ -7063,7 +7141,7 @@
         <v>2.1959</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1967</v>
       </c>
@@ -7092,7 +7170,7 @@
         <v>2.1486000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1967</v>
       </c>
@@ -7121,7 +7199,7 @@
         <v>2.1013999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1968</v>
       </c>
@@ -7150,7 +7228,7 @@
         <v>2.0878000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1970</v>
       </c>
@@ -7179,7 +7257,7 @@
         <v>2.0304000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1970</v>
       </c>
@@ -7208,7 +7286,7 @@
         <v>1.9730000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1970</v>
       </c>
@@ -7237,7 +7315,7 @@
         <v>1.8649</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1972</v>
       </c>
@@ -7266,7 +7344,7 @@
         <v>1.8073999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1972</v>
       </c>
@@ -7295,7 +7373,7 @@
         <v>1.7364999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1973</v>
       </c>
@@ -7324,7 +7402,7 @@
         <v>1.7128000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1976</v>
       </c>
@@ -7353,7 +7431,7 @@
         <v>1.7128000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1979</v>
       </c>
@@ -7382,7 +7460,7 @@
         <v>1.7027000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1980</v>
       </c>
@@ -7411,7 +7489,7 @@
         <v>1.6689000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1983</v>
       </c>
@@ -7440,7 +7518,7 @@
         <v>1.6892</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1984</v>
       </c>
@@ -7469,7 +7547,7 @@
         <v>1.6689000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1984</v>
       </c>
@@ -7498,7 +7576,7 @@
         <v>1.6791</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1984</v>
       </c>
@@ -7527,7 +7605,7 @@
         <v>1.6317999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1985</v>
       </c>
@@ -7556,7 +7634,7 @@
         <v>1.5743</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1987</v>
       </c>
@@ -7585,7 +7663,7 @@
         <v>1.5608</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1988</v>
       </c>
@@ -7614,7 +7692,7 @@
         <v>1.5507</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1988</v>
       </c>
@@ -7643,7 +7721,7 @@
         <v>1.5507</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1989</v>
       </c>
@@ -7672,7 +7750,7 @@
         <v>1.5269999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1990</v>
       </c>
@@ -7701,7 +7779,7 @@
         <v>1.5269999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1990</v>
       </c>
@@ -7730,7 +7808,7 @@
         <v>1.5135000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1995</v>
       </c>
@@ -7755,7 +7833,7 @@
         <v>1.5135000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G34" s="1">
         <v>1999</v>
       </c>
@@ -7769,7 +7847,7 @@
         <v>1.5034000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G35" s="1">
         <v>2000</v>
       </c>
@@ -7798,696 +7876,903 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BFC5A7-8146-4110-9E23-BBDC2726761B}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="192" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="1" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1959</v>
+      </c>
+      <c r="B2">
+        <v>15.0343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1959</v>
+      </c>
+      <c r="B3">
+        <v>17.264099999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1960</v>
+      </c>
+      <c r="B4">
+        <v>14.763999999999999</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1965</v>
+      </c>
+      <c r="B5">
+        <v>17.534500000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1970</v>
+      </c>
+      <c r="B6">
+        <v>15.71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1977</v>
+      </c>
+      <c r="B7">
+        <v>15.4399</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1981</v>
+      </c>
+      <c r="B8">
+        <v>14.6289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1982</v>
+      </c>
+      <c r="B9">
+        <v>15.0343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1984</v>
+      </c>
+      <c r="B10">
+        <v>14.561400000000001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1984</v>
+      </c>
+      <c r="B11">
+        <v>13.5479</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1985</v>
+      </c>
+      <c r="B12">
+        <v>11.453200000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1985</v>
+      </c>
+      <c r="B13">
+        <v>13.615500000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1985</v>
+      </c>
+      <c r="B14">
+        <v>13.953200000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1985</v>
+      </c>
+      <c r="B15">
+        <v>15.0343</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1988</v>
+      </c>
+      <c r="B16">
+        <v>13.007199999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1989</v>
+      </c>
+      <c r="B17">
+        <v>13.0749</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1989</v>
+      </c>
+      <c r="B18">
+        <v>12.989800000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1992</v>
+      </c>
+      <c r="B19">
+        <v>13.8857</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1993</v>
+      </c>
+      <c r="B20">
+        <v>13.615500000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>12.527100000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1960</v>
+      </c>
+      <c r="B22">
+        <v>21.090800000000002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1965</v>
+      </c>
+      <c r="B23">
+        <v>22.456</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1968</v>
+      </c>
+      <c r="B24">
+        <v>22.456</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1976</v>
+      </c>
+      <c r="B25">
+        <v>22.456</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1983</v>
+      </c>
+      <c r="B26">
+        <v>20.210899999999999</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1987</v>
+      </c>
+      <c r="B27">
+        <v>19.4221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1988</v>
+      </c>
+      <c r="B28">
+        <v>20.210899999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1993</v>
+      </c>
+      <c r="B29">
+        <v>19.300699999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1995</v>
+      </c>
+      <c r="B30">
+        <v>18.390599999999999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1996</v>
+      </c>
+      <c r="B31">
+        <v>18.329899999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1999</v>
+      </c>
+      <c r="B32">
+        <v>18.936699999999998</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1999</v>
+      </c>
+      <c r="B33">
+        <v>18.026499999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2001</v>
+      </c>
+      <c r="B34">
+        <v>18.512</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2002</v>
+      </c>
+      <c r="B35">
+        <v>18.8154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1959</v>
+      </c>
+      <c r="B36">
+        <v>28.176500000000001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A3" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15.0343</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1960</v>
-      </c>
-      <c r="F3" s="1">
-        <v>21.090800000000002</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1959</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28.176500000000001</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A4" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17.264099999999999</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1961</v>
+      </c>
+      <c r="B37">
+        <v>27.027799999999999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>1965</v>
       </c>
-      <c r="F4" s="1">
-        <v>22.456</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1961</v>
-      </c>
-      <c r="J4" s="1">
-        <v>27.027799999999999</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A5" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14.763999999999999</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B38">
+        <v>22.297999999999998</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1966</v>
+      </c>
+      <c r="B39">
+        <v>22.4331</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1967</v>
+      </c>
+      <c r="B40">
+        <v>23.244</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1967</v>
+      </c>
+      <c r="B41">
+        <v>22.771000000000001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1968</v>
       </c>
-      <c r="F5" s="1">
-        <v>22.456</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1965</v>
-      </c>
-      <c r="J5" s="1">
-        <v>22.297999999999998</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A6" s="1">
-        <v>1965</v>
-      </c>
-      <c r="B6" s="1">
-        <v>17.534500000000001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B42">
+        <v>23.244</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1970</v>
+      </c>
+      <c r="B43">
+        <v>17.095300000000002</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1970</v>
+      </c>
+      <c r="B44">
+        <v>17.568200000000001</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1970</v>
+      </c>
+      <c r="B45">
+        <v>17.6358</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1972</v>
+      </c>
+      <c r="B46">
+        <v>17.4331</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1972</v>
+      </c>
+      <c r="B47">
+        <v>17.770800000000001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1973</v>
+      </c>
+      <c r="B48">
+        <v>17.568200000000001</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>1976</v>
       </c>
-      <c r="F6" s="1">
-        <v>22.456</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1966</v>
-      </c>
-      <c r="J6" s="1">
-        <v>22.4331</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A7" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15.71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B49">
+        <v>21.892600000000002</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1979</v>
+      </c>
+      <c r="B50">
+        <v>17.973800000000001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1980</v>
+      </c>
+      <c r="B51">
+        <v>20.744</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>1983</v>
       </c>
-      <c r="F7" s="1">
-        <v>20.210899999999999</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1967</v>
-      </c>
-      <c r="J7" s="1">
-        <v>23.244</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A8" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15.4399</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B52">
+        <v>17.095300000000002</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1984</v>
+      </c>
+      <c r="B53">
+        <v>16.892499999999998</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1984</v>
+      </c>
+      <c r="B54">
+        <v>17.4331</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1984</v>
+      </c>
+      <c r="B55">
+        <v>20.879100000000001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1986</v>
+      </c>
+      <c r="B56">
+        <v>16.892499999999998</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>1987</v>
       </c>
-      <c r="F8" s="1">
-        <v>19.4221</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1967</v>
-      </c>
-      <c r="J8" s="1">
-        <v>22.771000000000001</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A9" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B9" s="1">
-        <v>14.6289</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B57">
+        <v>16.960100000000001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>1988</v>
       </c>
-      <c r="F9" s="1">
-        <v>20.210899999999999</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1968</v>
-      </c>
-      <c r="J9" s="1">
-        <v>23.244</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A10" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15.0343</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1993</v>
-      </c>
-      <c r="F10" s="1">
-        <v>19.300699999999999</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1970</v>
-      </c>
-      <c r="J10" s="1">
-        <v>17.095300000000002</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A11" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14.561400000000001</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B58">
+        <v>16.892499999999998</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1988</v>
+      </c>
+      <c r="B59">
+        <v>17.770800000000001</v>
+      </c>
+      <c r="C59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1989</v>
+      </c>
+      <c r="B60">
+        <v>17.4331</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1990</v>
+      </c>
+      <c r="B61">
+        <v>16.892499999999998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1990</v>
+      </c>
+      <c r="B62">
+        <v>17.973800000000001</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>1995</v>
       </c>
-      <c r="F11" s="1">
-        <v>18.390599999999999</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1970</v>
-      </c>
-      <c r="J11" s="1">
-        <v>17.568200000000001</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A12" s="1">
-        <v>1984</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13.5479</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>18.329899999999999</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1970</v>
-      </c>
-      <c r="J12" s="1">
-        <v>17.6358</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A13" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11.453200000000001</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>18.936699999999998</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1972</v>
-      </c>
-      <c r="J13" s="1">
-        <v>17.4331</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.615500000000001</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1999</v>
-      </c>
-      <c r="F14" s="1">
-        <v>18.026499999999999</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1972</v>
-      </c>
-      <c r="J14" s="1">
-        <v>17.770800000000001</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A15" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13.953200000000001</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>18.512</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1973</v>
-      </c>
-      <c r="J15" s="1">
-        <v>17.568200000000001</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A16" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15.0343</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>18.8154</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1976</v>
-      </c>
-      <c r="J16" s="1">
-        <v>21.892600000000002</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A17" s="1">
-        <v>1988</v>
-      </c>
-      <c r="B17" s="1">
-        <v>13.007199999999999</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1979</v>
-      </c>
-      <c r="J17" s="1">
-        <v>17.973800000000001</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B18" s="1">
-        <v>13.0749</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1980</v>
-      </c>
-      <c r="J18" s="1">
-        <v>20.744</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A19" s="1">
-        <v>1989</v>
-      </c>
-      <c r="B19" s="1">
-        <v>12.989800000000001</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1983</v>
-      </c>
-      <c r="J19" s="1">
-        <v>17.095300000000002</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A20" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B20" s="1">
-        <v>13.8857</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J20" s="1">
-        <v>16.892499999999998</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A21" s="1">
-        <v>1993</v>
-      </c>
-      <c r="B21" s="1">
-        <v>13.615500000000001</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J21" s="1">
-        <v>17.4331</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A22" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B22" s="1">
-        <v>12.527100000000001</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1984</v>
-      </c>
-      <c r="J22" s="1">
-        <v>20.879100000000001</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I23" s="1">
-        <v>1986</v>
-      </c>
-      <c r="J23" s="1">
-        <v>16.892499999999998</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I24" s="1">
-        <v>1987</v>
-      </c>
-      <c r="J24" s="1">
-        <v>16.960100000000001</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I25" s="1">
-        <v>1988</v>
-      </c>
-      <c r="J25" s="1">
-        <v>16.892499999999998</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I26" s="1">
-        <v>1988</v>
-      </c>
-      <c r="J26" s="1">
-        <v>17.770800000000001</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I27" s="1">
-        <v>1989</v>
-      </c>
-      <c r="J27" s="1">
-        <v>17.4331</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I28" s="1">
-        <v>1990</v>
-      </c>
-      <c r="J28" s="1">
-        <v>16.892499999999998</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I29" s="1">
-        <v>1990</v>
-      </c>
-      <c r="J29" s="1">
-        <v>17.973800000000001</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="I30" s="1">
-        <v>1995</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="B63">
         <v>15.811400000000001</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="C63" t="s">
         <v>71</v>
       </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8499,19 +8784,19 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -8528,7 +8813,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8557,7 +8842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1959</v>
       </c>
@@ -8586,7 +8871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1959</v>
       </c>
@@ -8615,7 +8900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1965</v>
       </c>
@@ -8644,7 +8929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1967</v>
       </c>
@@ -8673,7 +8958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1970</v>
       </c>
@@ -8702,7 +8987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1977</v>
       </c>
@@ -8731,7 +9016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1981</v>
       </c>
@@ -8760,7 +9045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1982</v>
       </c>
@@ -8789,7 +9074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1984</v>
       </c>
@@ -8818,7 +9103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1984</v>
       </c>
@@ -8847,7 +9132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1985</v>
       </c>
@@ -8876,7 +9161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1985</v>
       </c>
@@ -8905,7 +9190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1985</v>
       </c>
@@ -8925,7 +9210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1985</v>
       </c>
@@ -8945,7 +9230,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1988</v>
       </c>
@@ -8965,7 +9250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1989</v>
       </c>
@@ -8985,7 +9270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1992</v>
       </c>
@@ -9005,7 +9290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1993</v>
       </c>
@@ -9025,7 +9310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1998</v>
       </c>
@@ -9045,7 +9330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I22" s="1">
         <v>1985</v>
       </c>
@@ -9056,7 +9341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I23" s="1">
         <v>1987</v>
       </c>
@@ -9067,7 +9352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I24" s="1">
         <v>1988</v>
       </c>
@@ -9078,7 +9363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>1988</v>
       </c>
@@ -9089,7 +9374,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>1989</v>
       </c>
@@ -9100,7 +9385,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I27" s="1">
         <v>1990</v>
       </c>
@@ -9111,7 +9396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I28" s="1">
         <v>1990</v>
       </c>
@@ -9122,7 +9407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I29" s="1">
         <v>1995</v>
       </c>
@@ -9153,18 +9438,18 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -9185,7 +9470,7 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9220,7 +9505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1959</v>
       </c>
@@ -9255,7 +9540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1981</v>
       </c>
@@ -9290,7 +9575,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1982</v>
       </c>
@@ -9325,7 +9610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1985</v>
       </c>
@@ -9360,7 +9645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1985</v>
       </c>
@@ -9395,7 +9680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1985</v>
       </c>
@@ -9424,7 +9709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1985</v>
       </c>
@@ -9453,7 +9738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1988</v>
       </c>
@@ -9473,7 +9758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1989</v>
       </c>
@@ -9493,7 +9778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1992</v>
       </c>
@@ -9513,7 +9798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1993</v>
       </c>
@@ -9533,7 +9818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1998</v>
       </c>
@@ -9553,7 +9838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="1">
         <v>1984</v>
       </c>
@@ -9564,7 +9849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I16" s="1">
         <v>1983</v>
       </c>
@@ -9575,7 +9860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I17" s="1">
         <v>1987</v>
       </c>
@@ -9586,7 +9871,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I18" s="1">
         <v>1995</v>
       </c>
@@ -9597,7 +9882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I19" s="1">
         <v>1970</v>
       </c>
@@ -9608,7 +9893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I20" s="1">
         <v>1972</v>
       </c>
@@ -9619,7 +9904,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I21" s="1">
         <v>1972</v>
       </c>
@@ -9630,7 +9915,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I22" s="1">
         <v>1966</v>
       </c>
@@ -9641,7 +9926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I23" s="1">
         <v>1973</v>
       </c>
@@ -9652,7 +9937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I24" s="1">
         <v>1979</v>
       </c>
@@ -9663,7 +9948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I25" s="1">
         <v>1990</v>
       </c>
@@ -9674,7 +9959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I26" s="1">
         <v>1980</v>
       </c>
@@ -9706,13 +9991,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9729,7 +10014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1962</v>
       </c>
@@ -9743,7 +10028,7 @@
         <v>0.41126000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1959</v>
       </c>
@@ -9758,7 +10043,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1961</v>
       </c>
@@ -9769,7 +10054,7 @@
         <v>27.027799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1965</v>
       </c>
@@ -9783,7 +10068,7 @@
         <v>0.55571000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1966</v>
       </c>
@@ -9800,7 +10085,7 @@
         <v>0.46839999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1967</v>
       </c>
@@ -9817,7 +10102,7 @@
         <v>0.57157999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1967</v>
       </c>
@@ -9831,7 +10116,7 @@
         <v>13.9129</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1967</v>
       </c>
@@ -9842,7 +10127,7 @@
         <v>0.52237</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1968</v>
       </c>
@@ -9856,7 +10141,7 @@
         <v>0.48426999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1970</v>
       </c>
@@ -9873,7 +10158,7 @@
         <v>0.51444000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1970</v>
       </c>
@@ -9890,7 +10175,7 @@
         <v>0.53507000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1970</v>
       </c>
@@ -9907,7 +10192,7 @@
         <v>0.48110000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1972</v>
       </c>
@@ -9924,7 +10209,7 @@
         <v>0.47793000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1972</v>
       </c>
@@ -9941,7 +10226,7 @@
         <v>0.46046999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>1973</v>
       </c>
@@ -9958,7 +10243,7 @@
         <v>0.53664999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1976</v>
       </c>
@@ -9972,7 +10257,7 @@
         <v>0.50966999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>1979</v>
       </c>
@@ -9989,7 +10274,7 @@
         <v>0.47793000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1980</v>
       </c>
@@ -10008,7 +10293,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1983</v>
       </c>
@@ -10025,7 +10310,7 @@
         <v>0.53983000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1984</v>
       </c>
@@ -10042,7 +10327,7 @@
         <v>0.52078000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1984</v>
       </c>
@@ -10059,7 +10344,7 @@
         <v>0.54935999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1984</v>
       </c>
@@ -10076,7 +10361,7 @@
         <v>0.54776999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1985</v>
       </c>
@@ -10093,7 +10378,7 @@
         <v>0.50966999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1987</v>
       </c>
@@ -10110,7 +10395,7 @@
         <v>0.52395999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1988</v>
       </c>
@@ -10127,7 +10412,7 @@
         <v>0.55410999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1988</v>
       </c>
@@ -10144,7 +10429,7 @@
         <v>0.52237</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1989</v>
       </c>
@@ -10161,7 +10446,7 @@
         <v>0.48269000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>1990</v>
       </c>
@@ -10178,7 +10463,7 @@
         <v>0.45728999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1990</v>
       </c>
@@ -10195,7 +10480,7 @@
         <v>0.58269000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1995</v>
       </c>
